--- a/docs/что входит и допы/Генеральная уборка.xlsx
+++ b/docs/что входит и допы/Генеральная уборка.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OS\OSPanel\domains\GitHub\cleaning\docs\что входит и допы\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8794A5C2-0AF7-4AE7-AFB3-2332211893B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0317E13D-B0C7-4F40-B447-BF6FDAE03A39}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="52">
   <si>
     <t>Комнаты</t>
   </si>
@@ -46,9 +46,6 @@
   </si>
   <si>
     <t>Глажка</t>
-  </si>
-  <si>
-    <t>! Важно. Обязательное использование пылесоса клиента, если есть домашние животные. Если нет – доп доставка – 500р</t>
   </si>
   <si>
     <t>Очищаем зеркала и стеклянные поверхности</t>
@@ -250,7 +247,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -259,9 +256,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -547,10 +541,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:D33"/>
+  <dimension ref="B2:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -572,139 +566,139 @@
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D4" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="2" t="s">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="2" t="s">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="2" t="s">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B13" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="5" t="s">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B14" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B13" s="5" t="s">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B15" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B16" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D18" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B14" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B15" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B16" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" s="2" t="s">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="20" spans="2:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -717,7 +711,7 @@
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>4</v>
@@ -725,7 +719,7 @@
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>5</v>
@@ -733,15 +727,15 @@
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>6</v>
@@ -749,56 +743,46 @@
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B26" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B28" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B29" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B30" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B31" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B33" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
+        <v>48</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B33:D33"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
